--- a/MySQL/无照责令记录表.xlsx
+++ b/MySQL/无照责令记录表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456">
   <si>
     <r>
       <rPr>
@@ -505,6 +505,940 @@
   <si>
     <t>A150</t>
   </si>
+  <si>
+    <r>
+      <t>18-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>二组</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>年无照责令（二组）</t>
+    </r>
+  </si>
+  <si>
+    <t>B001</t>
+  </si>
+  <si>
+    <t>B002</t>
+  </si>
+  <si>
+    <t>B003</t>
+  </si>
+  <si>
+    <t>B004</t>
+  </si>
+  <si>
+    <t>B005</t>
+  </si>
+  <si>
+    <t>B006</t>
+  </si>
+  <si>
+    <t>B007</t>
+  </si>
+  <si>
+    <t>B008</t>
+  </si>
+  <si>
+    <t>B009</t>
+  </si>
+  <si>
+    <t>B010</t>
+  </si>
+  <si>
+    <t>B011</t>
+  </si>
+  <si>
+    <t>B012</t>
+  </si>
+  <si>
+    <t>B013</t>
+  </si>
+  <si>
+    <t>B014</t>
+  </si>
+  <si>
+    <t>B015</t>
+  </si>
+  <si>
+    <t>B016</t>
+  </si>
+  <si>
+    <t>B017</t>
+  </si>
+  <si>
+    <t>B018</t>
+  </si>
+  <si>
+    <t>B019</t>
+  </si>
+  <si>
+    <t>B020</t>
+  </si>
+  <si>
+    <t>B021</t>
+  </si>
+  <si>
+    <t>B022</t>
+  </si>
+  <si>
+    <t>B023</t>
+  </si>
+  <si>
+    <t>B024</t>
+  </si>
+  <si>
+    <t>B025</t>
+  </si>
+  <si>
+    <t>B026</t>
+  </si>
+  <si>
+    <t>B027</t>
+  </si>
+  <si>
+    <t>B028</t>
+  </si>
+  <si>
+    <t>B029</t>
+  </si>
+  <si>
+    <t>B030</t>
+  </si>
+  <si>
+    <t>B031</t>
+  </si>
+  <si>
+    <t>B032</t>
+  </si>
+  <si>
+    <t>B033</t>
+  </si>
+  <si>
+    <t>B034</t>
+  </si>
+  <si>
+    <t>B035</t>
+  </si>
+  <si>
+    <t>B036</t>
+  </si>
+  <si>
+    <t>B037</t>
+  </si>
+  <si>
+    <t>B038</t>
+  </si>
+  <si>
+    <t>B039</t>
+  </si>
+  <si>
+    <t>B040</t>
+  </si>
+  <si>
+    <t>B041</t>
+  </si>
+  <si>
+    <t>B042</t>
+  </si>
+  <si>
+    <t>B043</t>
+  </si>
+  <si>
+    <t>B044</t>
+  </si>
+  <si>
+    <t>B045</t>
+  </si>
+  <si>
+    <t>B046</t>
+  </si>
+  <si>
+    <t>B047</t>
+  </si>
+  <si>
+    <t>B048</t>
+  </si>
+  <si>
+    <t>B049</t>
+  </si>
+  <si>
+    <t>B050</t>
+  </si>
+  <si>
+    <t>B051</t>
+  </si>
+  <si>
+    <t>B052</t>
+  </si>
+  <si>
+    <t>B053</t>
+  </si>
+  <si>
+    <t>B054</t>
+  </si>
+  <si>
+    <t>B055</t>
+  </si>
+  <si>
+    <t>B056</t>
+  </si>
+  <si>
+    <t>B057</t>
+  </si>
+  <si>
+    <t>B058</t>
+  </si>
+  <si>
+    <t>B059</t>
+  </si>
+  <si>
+    <t>B060</t>
+  </si>
+  <si>
+    <t>B061</t>
+  </si>
+  <si>
+    <t>B062</t>
+  </si>
+  <si>
+    <t>B063</t>
+  </si>
+  <si>
+    <t>B064</t>
+  </si>
+  <si>
+    <t>B065</t>
+  </si>
+  <si>
+    <t>B066</t>
+  </si>
+  <si>
+    <t>B067</t>
+  </si>
+  <si>
+    <t>B068</t>
+  </si>
+  <si>
+    <t>B069</t>
+  </si>
+  <si>
+    <t>B070</t>
+  </si>
+  <si>
+    <t>B071</t>
+  </si>
+  <si>
+    <t>B072</t>
+  </si>
+  <si>
+    <t>B073</t>
+  </si>
+  <si>
+    <t>B074</t>
+  </si>
+  <si>
+    <t>B075</t>
+  </si>
+  <si>
+    <t>B076</t>
+  </si>
+  <si>
+    <t>B077</t>
+  </si>
+  <si>
+    <t>B078</t>
+  </si>
+  <si>
+    <t>B079</t>
+  </si>
+  <si>
+    <t>B080</t>
+  </si>
+  <si>
+    <t>B081</t>
+  </si>
+  <si>
+    <t>B082</t>
+  </si>
+  <si>
+    <t>B083</t>
+  </si>
+  <si>
+    <t>B084</t>
+  </si>
+  <si>
+    <t>B085</t>
+  </si>
+  <si>
+    <t>B086</t>
+  </si>
+  <si>
+    <t>B087</t>
+  </si>
+  <si>
+    <t>B088</t>
+  </si>
+  <si>
+    <t>B089</t>
+  </si>
+  <si>
+    <t>B090</t>
+  </si>
+  <si>
+    <t>B091</t>
+  </si>
+  <si>
+    <t>B092</t>
+  </si>
+  <si>
+    <t>B093</t>
+  </si>
+  <si>
+    <t>B094</t>
+  </si>
+  <si>
+    <t>B095</t>
+  </si>
+  <si>
+    <t>B096</t>
+  </si>
+  <si>
+    <t>B097</t>
+  </si>
+  <si>
+    <t>B098</t>
+  </si>
+  <si>
+    <t>B099</t>
+  </si>
+  <si>
+    <t>B100</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>B102</t>
+  </si>
+  <si>
+    <t>B103</t>
+  </si>
+  <si>
+    <t>B104</t>
+  </si>
+  <si>
+    <t>B105</t>
+  </si>
+  <si>
+    <t>B106</t>
+  </si>
+  <si>
+    <t>B107</t>
+  </si>
+  <si>
+    <t>B108</t>
+  </si>
+  <si>
+    <t>B109</t>
+  </si>
+  <si>
+    <t>B110</t>
+  </si>
+  <si>
+    <t>B111</t>
+  </si>
+  <si>
+    <t>B112</t>
+  </si>
+  <si>
+    <t>B113</t>
+  </si>
+  <si>
+    <t>B114</t>
+  </si>
+  <si>
+    <t>B115</t>
+  </si>
+  <si>
+    <t>B116</t>
+  </si>
+  <si>
+    <t>B117</t>
+  </si>
+  <si>
+    <t>B118</t>
+  </si>
+  <si>
+    <t>B119</t>
+  </si>
+  <si>
+    <t>B120</t>
+  </si>
+  <si>
+    <t>B121</t>
+  </si>
+  <si>
+    <t>B122</t>
+  </si>
+  <si>
+    <t>B123</t>
+  </si>
+  <si>
+    <t>B124</t>
+  </si>
+  <si>
+    <t>B125</t>
+  </si>
+  <si>
+    <t>B126</t>
+  </si>
+  <si>
+    <t>B127</t>
+  </si>
+  <si>
+    <t>B128</t>
+  </si>
+  <si>
+    <t>B129</t>
+  </si>
+  <si>
+    <t>B130</t>
+  </si>
+  <si>
+    <t>B131</t>
+  </si>
+  <si>
+    <t>B132</t>
+  </si>
+  <si>
+    <t>B133</t>
+  </si>
+  <si>
+    <t>B134</t>
+  </si>
+  <si>
+    <t>B135</t>
+  </si>
+  <si>
+    <t>B136</t>
+  </si>
+  <si>
+    <t>B137</t>
+  </si>
+  <si>
+    <t>B138</t>
+  </si>
+  <si>
+    <t>B139</t>
+  </si>
+  <si>
+    <t>B140</t>
+  </si>
+  <si>
+    <t>B141</t>
+  </si>
+  <si>
+    <t>B142</t>
+  </si>
+  <si>
+    <t>B143</t>
+  </si>
+  <si>
+    <t>B144</t>
+  </si>
+  <si>
+    <t>B145</t>
+  </si>
+  <si>
+    <t>B146</t>
+  </si>
+  <si>
+    <t>B147</t>
+  </si>
+  <si>
+    <t>B148</t>
+  </si>
+  <si>
+    <t>B149</t>
+  </si>
+  <si>
+    <t>B150</t>
+  </si>
+  <si>
+    <t>18-三组</t>
+  </si>
+  <si>
+    <t>2018年无照责令（三组）</t>
+  </si>
+  <si>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t>C004</t>
+  </si>
+  <si>
+    <t>C005</t>
+  </si>
+  <si>
+    <t>C006</t>
+  </si>
+  <si>
+    <t>C007</t>
+  </si>
+  <si>
+    <t>C008</t>
+  </si>
+  <si>
+    <t>C009</t>
+  </si>
+  <si>
+    <t>C010</t>
+  </si>
+  <si>
+    <t>C011</t>
+  </si>
+  <si>
+    <t>C012</t>
+  </si>
+  <si>
+    <t>C013</t>
+  </si>
+  <si>
+    <t>C014</t>
+  </si>
+  <si>
+    <t>C015</t>
+  </si>
+  <si>
+    <t>C016</t>
+  </si>
+  <si>
+    <t>C017</t>
+  </si>
+  <si>
+    <t>C018</t>
+  </si>
+  <si>
+    <t>C019</t>
+  </si>
+  <si>
+    <t>C020</t>
+  </si>
+  <si>
+    <t>C021</t>
+  </si>
+  <si>
+    <t>C022</t>
+  </si>
+  <si>
+    <t>C023</t>
+  </si>
+  <si>
+    <t>C024</t>
+  </si>
+  <si>
+    <t>C025</t>
+  </si>
+  <si>
+    <t>C026</t>
+  </si>
+  <si>
+    <t>C027</t>
+  </si>
+  <si>
+    <t>C028</t>
+  </si>
+  <si>
+    <t>C029</t>
+  </si>
+  <si>
+    <t>C030</t>
+  </si>
+  <si>
+    <t>C031</t>
+  </si>
+  <si>
+    <t>C032</t>
+  </si>
+  <si>
+    <t>C033</t>
+  </si>
+  <si>
+    <t>C034</t>
+  </si>
+  <si>
+    <t>C035</t>
+  </si>
+  <si>
+    <t>C036</t>
+  </si>
+  <si>
+    <t>C037</t>
+  </si>
+  <si>
+    <t>C038</t>
+  </si>
+  <si>
+    <t>C039</t>
+  </si>
+  <si>
+    <t>C040</t>
+  </si>
+  <si>
+    <t>C041</t>
+  </si>
+  <si>
+    <t>C042</t>
+  </si>
+  <si>
+    <t>C043</t>
+  </si>
+  <si>
+    <t>C044</t>
+  </si>
+  <si>
+    <t>C045</t>
+  </si>
+  <si>
+    <t>C046</t>
+  </si>
+  <si>
+    <t>C047</t>
+  </si>
+  <si>
+    <t>C048</t>
+  </si>
+  <si>
+    <t>C049</t>
+  </si>
+  <si>
+    <t>C050</t>
+  </si>
+  <si>
+    <t>C051</t>
+  </si>
+  <si>
+    <t>C052</t>
+  </si>
+  <si>
+    <t>C053</t>
+  </si>
+  <si>
+    <t>C054</t>
+  </si>
+  <si>
+    <t>C055</t>
+  </si>
+  <si>
+    <t>C056</t>
+  </si>
+  <si>
+    <t>C057</t>
+  </si>
+  <si>
+    <t>C058</t>
+  </si>
+  <si>
+    <t>C059</t>
+  </si>
+  <si>
+    <t>C060</t>
+  </si>
+  <si>
+    <t>C061</t>
+  </si>
+  <si>
+    <t>C062</t>
+  </si>
+  <si>
+    <t>C063</t>
+  </si>
+  <si>
+    <t>C064</t>
+  </si>
+  <si>
+    <t>C065</t>
+  </si>
+  <si>
+    <t>C066</t>
+  </si>
+  <si>
+    <t>C067</t>
+  </si>
+  <si>
+    <t>C068</t>
+  </si>
+  <si>
+    <t>C069</t>
+  </si>
+  <si>
+    <t>C070</t>
+  </si>
+  <si>
+    <t>C071</t>
+  </si>
+  <si>
+    <t>C072</t>
+  </si>
+  <si>
+    <t>C073</t>
+  </si>
+  <si>
+    <t>C074</t>
+  </si>
+  <si>
+    <t>C075</t>
+  </si>
+  <si>
+    <t>C076</t>
+  </si>
+  <si>
+    <t>C077</t>
+  </si>
+  <si>
+    <t>C078</t>
+  </si>
+  <si>
+    <t>C079</t>
+  </si>
+  <si>
+    <t>C080</t>
+  </si>
+  <si>
+    <t>C081</t>
+  </si>
+  <si>
+    <t>C082</t>
+  </si>
+  <si>
+    <t>C083</t>
+  </si>
+  <si>
+    <t>C084</t>
+  </si>
+  <si>
+    <t>C085</t>
+  </si>
+  <si>
+    <t>C086</t>
+  </si>
+  <si>
+    <t>C087</t>
+  </si>
+  <si>
+    <t>C088</t>
+  </si>
+  <si>
+    <t>C089</t>
+  </si>
+  <si>
+    <t>C090</t>
+  </si>
+  <si>
+    <t>C091</t>
+  </si>
+  <si>
+    <t>C092</t>
+  </si>
+  <si>
+    <t>C093</t>
+  </si>
+  <si>
+    <t>C094</t>
+  </si>
+  <si>
+    <t>C095</t>
+  </si>
+  <si>
+    <t>C096</t>
+  </si>
+  <si>
+    <t>C097</t>
+  </si>
+  <si>
+    <t>C098</t>
+  </si>
+  <si>
+    <t>C099</t>
+  </si>
+  <si>
+    <t>C100</t>
+  </si>
+  <si>
+    <t>C101</t>
+  </si>
+  <si>
+    <t>C102</t>
+  </si>
+  <si>
+    <t>C103</t>
+  </si>
+  <si>
+    <t>C104</t>
+  </si>
+  <si>
+    <t>C105</t>
+  </si>
+  <si>
+    <t>C106</t>
+  </si>
+  <si>
+    <t>C107</t>
+  </si>
+  <si>
+    <t>C108</t>
+  </si>
+  <si>
+    <t>C109</t>
+  </si>
+  <si>
+    <t>C110</t>
+  </si>
+  <si>
+    <t>C111</t>
+  </si>
+  <si>
+    <t>C112</t>
+  </si>
+  <si>
+    <t>C113</t>
+  </si>
+  <si>
+    <t>C114</t>
+  </si>
+  <si>
+    <t>C115</t>
+  </si>
+  <si>
+    <t>C116</t>
+  </si>
+  <si>
+    <t>C117</t>
+  </si>
+  <si>
+    <t>C118</t>
+  </si>
+  <si>
+    <t>C119</t>
+  </si>
+  <si>
+    <t>C120</t>
+  </si>
+  <si>
+    <t>C121</t>
+  </si>
+  <si>
+    <t>C122</t>
+  </si>
+  <si>
+    <t>C123</t>
+  </si>
+  <si>
+    <t>C124</t>
+  </si>
+  <si>
+    <t>C125</t>
+  </si>
+  <si>
+    <t>C126</t>
+  </si>
+  <si>
+    <t>C127</t>
+  </si>
+  <si>
+    <t>C128</t>
+  </si>
+  <si>
+    <t>C129</t>
+  </si>
+  <si>
+    <t>C130</t>
+  </si>
+  <si>
+    <t>C131</t>
+  </si>
+  <si>
+    <t>C132</t>
+  </si>
+  <si>
+    <t>C133</t>
+  </si>
+  <si>
+    <t>C134</t>
+  </si>
+  <si>
+    <t>C135</t>
+  </si>
+  <si>
+    <t>C136</t>
+  </si>
+  <si>
+    <t>C137</t>
+  </si>
+  <si>
+    <t>C138</t>
+  </si>
+  <si>
+    <t>C139</t>
+  </si>
+  <si>
+    <t>C140</t>
+  </si>
+  <si>
+    <t>C141</t>
+  </si>
+  <si>
+    <t>C142</t>
+  </si>
+  <si>
+    <t>C143</t>
+  </si>
+  <si>
+    <t>C144</t>
+  </si>
+  <si>
+    <t>C145</t>
+  </si>
+  <si>
+    <t>C146</t>
+  </si>
+  <si>
+    <t>C147</t>
+  </si>
+  <si>
+    <t>C148</t>
+  </si>
+  <si>
+    <t>C149</t>
+  </si>
+  <si>
+    <t>C150</t>
+  </si>
 </sst>
 </file>
 
@@ -512,9 +1446,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1464,10 +2398,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D450"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="C447" sqref="C447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3144,6 +4078,3306 @@
         <v>151</v>
       </c>
     </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C156" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C157" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C158" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C159" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C160" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C161" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C162" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C163" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C166" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C168" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C170" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C171" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C172" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C174" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C175" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C176" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C177" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C178" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C179" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C180" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C181" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C182" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C184" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C185" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C186" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C188" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C189" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C190" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C191" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C192" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C193" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C238" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C240" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C241" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C243" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C244" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C245" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C246" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C247" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C248" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C249" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C250" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C251" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C252" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C253" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C254" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C255" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C256" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C257" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C258" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C259" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C260" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C261" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C262" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C263" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C264" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C265" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C266" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C267" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C268" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C269" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C270" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C271" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C272" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C273" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C274" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C275" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C276" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C277" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C278" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C279" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C280" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C281" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C282" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C283" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C284" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C285" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C286" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C287" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C288" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C289" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C290" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C291" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C292" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C293" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C294" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C295" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C296" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C297" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C298" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C299" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C300" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C301" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C302" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C303" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C304" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C305" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C306" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C307" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C308" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C309" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C310" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C311" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C312" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C313" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C314" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C315" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C316" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C317" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C318" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C319" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C320" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C321" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C322" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C323" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C324" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C325" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C326" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C327" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C328" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C329" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C330" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C331" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C332" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C333" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C334" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C335" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C336" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C337" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C338" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C339" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C340" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C341" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C342" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C343" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C344" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C345" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C346" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C347" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C348" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C349" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C350" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C351" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C352" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C353" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C354" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C355" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C356" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C357" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C358" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C359" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C360" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C361" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C362" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C363" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C364" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C365" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C366" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C367" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C368" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C369" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C370" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C371" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C372" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C373" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C374" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C375" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C376" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C377" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C378" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C379" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C380" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C381" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C382" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C383" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C384" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C385" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C386" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C387" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C388" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C389" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C390" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C391" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C392" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C393" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C394" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C395" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C396" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C397" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C398" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C399" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C400" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C401" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C402" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C403" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C404" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C405" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C406" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C407" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C408" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C409" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C410" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C411" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C412" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C413" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C414" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C415" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C416" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C417" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C418" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C419" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C420" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C421" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C422" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C423" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C424" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C425" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C426" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C427" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C428" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C429" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C430" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C431" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C432" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C433" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C434" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C435" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C436" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C437" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C438" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C439" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C440" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C441" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C442" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C443" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C444" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C445" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C446" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C447" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C448" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C449" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C450" t="s">
+        <v>455</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
